--- a/Kutuzov17/evidence.xlsx
+++ b/Kutuzov17/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\Kutuzov17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\2. C-Althea - Kutuzov17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -132,9 +132,6 @@
     <t>juno1fln4q5wulfgr4qk7s7hnlxfnyghlg62sk4vxcl</t>
   </si>
   <si>
-    <t>uptick1fln4q5wulfgr4qk7s7hnlxfnyghlg62snpnxxj</t>
-  </si>
-  <si>
     <t>omniflix1fln4q5wulfgr4qk7s7hnlxfnyghlg62sae7yga</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>uptick1xwjqw7upd43d3u2ntjsxs3vx0ppr7f68dp75gy</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,16 +605,16 @@
         <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -622,13 +622,13 @@
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1071,7 +1071,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1096,6 +1098,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1338,7 +1341,9 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1370,6 +1375,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1429,7 +1435,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1468,6 +1476,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1478,7 +1487,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1517,6 +1528,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1527,7 +1539,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1567,6 +1581,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Kutuzov17/evidence.xlsx
+++ b/Kutuzov17/evidence.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
   <si>
     <t>TxHash</t>
   </si>
@@ -78,24 +78,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -142,6 +124,54 @@
   </si>
   <si>
     <t>uptick1xwjqw7upd43d3u2ntjsxs3vx0ppr7f68dp75gy</t>
+  </si>
+  <si>
+    <t>5BE98606491C22D11BE5DD582E2C73A565045352CDB24B42D977917A10EF43AA</t>
+  </si>
+  <si>
+    <t>kutuzovGoNFT</t>
+  </si>
+  <si>
+    <t>DF82067D3F012AC718B305C0BC16359549FE277D5F190FBD03682D2F52E1A942</t>
+  </si>
+  <si>
+    <t>kutuzov001</t>
+  </si>
+  <si>
+    <t>0C0BC912BB7B3E36AA048B951DCD273654BD0CE21978B86B4A13218615D018B1</t>
+  </si>
+  <si>
+    <t>kutuzov002</t>
+  </si>
+  <si>
+    <t>B51980F0DB66DE20ED132647BA95D76259F7759108DC02480E6038C4293AAE41</t>
+  </si>
+  <si>
+    <t>kutuzov003</t>
+  </si>
+  <si>
+    <t>3FC7A59A824783A62274AEA5F2E73E3E1417421B5986B3850BD83F17CBC66829</t>
+  </si>
+  <si>
+    <t>wasm.juno1ummdfdvtvs3wrnfntdz8tewceyp27ahledcz9qxzevkng8us45sss9dgg8</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>5569DA184716CACE8FA9E83DFFE31B1D31D170DE9BBEE49793E8E4EE159859E0</t>
+  </si>
+  <si>
+    <t>ibc/D3F28BB155F492C517E9ADD9044C85A94DDD54F3518557473CCA5C35696B6C8C</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>703384E75533522BCC1EC22247D4982A82A810574548E1FC28C7284E4A25C7E5</t>
+  </si>
+  <si>
+    <t>9DCED4F73F30CB88865F90E236205FD65F4B033A756FFBD52BCE8C7D5601EBBD</t>
   </si>
 </sst>
 </file>
@@ -550,7 +580,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,54 +597,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1072,7 +1102,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,12 +1118,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1339,10 +1369,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,15 +1392,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1438,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1409,18 +1463,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1490,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,18 +1514,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1542,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,18 +1566,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1594,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,18 +1619,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Kutuzov17/evidence.xlsx
+++ b/Kutuzov17/evidence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\2. C-Althea - Kutuzov17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\CRYPTO FAMILY\NODES\Game NFT\#3. C-Althea - Kutuzov17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10755" firstSheet="10" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
   <si>
     <t>TxHash</t>
   </si>
@@ -72,12 +72,6 @@
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -172,6 +166,135 @@
   </si>
   <si>
     <t>9DCED4F73F30CB88865F90E236205FD65F4B033A756FFBD52BCE8C7D5601EBBD</t>
+  </si>
+  <si>
+    <t>ibc/76560F6B3B79EEEF5D07221695391BA3567EAF80E9C181DFD2FBD3ED401ADD55</t>
+  </si>
+  <si>
+    <t>kutuzov007</t>
+  </si>
+  <si>
+    <t>ibc/3C02070C0C1FEE08FC99EC23BEF46C18A603DE0893DB03D5C03CA3FB37C98F4B</t>
+  </si>
+  <si>
+    <t>kutuzov008</t>
+  </si>
+  <si>
+    <t>ibc/84215183550928C132716A08386CCA55515FB0CE76A17E5A9575C80B973C0E7F</t>
+  </si>
+  <si>
+    <t>kutuzov009</t>
+  </si>
+  <si>
+    <t>ibc/760368872BE3024CD24B82561FA07B5ED0374BF4891B652334D14BE2C5FE5C9B</t>
+  </si>
+  <si>
+    <t>kutuzov0010</t>
+  </si>
+  <si>
+    <t>ibc/3557B6920B858460D2F2183A323E826AD6666B91F462C2E82A4AFE552EEC1E67</t>
+  </si>
+  <si>
+    <t>kutuzov0011</t>
+  </si>
+  <si>
+    <t>ibc/07AB89D67716C504D9391905149F3979486C0DB6F9D8909E5E0023259B915B92</t>
+  </si>
+  <si>
+    <t>kutuzov0012</t>
+  </si>
+  <si>
+    <t>5E44147A04B5AB673256273868CAF36F5A913E25258BD89FD54B64CA45D67203</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>C09BD6F535DE75267B347910062512073A92B4A572B645DA9C3F8F3FC34DE990</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>7C0FD6CE55E8413BAD6EDDCAB8A802038322E3B816B0CC1D2691AD87DEB80EB4</t>
+  </si>
+  <si>
+    <t>DBF5308F1055A1AA54A533E6BDE3AAEAA9213EDDAF49D7C1195526D597BF3ECD</t>
+  </si>
+  <si>
+    <t>F814108A599EEF67003165E4FCBAB3894262490C37905372927ABAAEDC009D97</t>
+  </si>
+  <si>
+    <t>8385047B33A89406D17E951E1B962DF409019DD3BAA55FCE57106B814A413A91</t>
+  </si>
+  <si>
+    <t>E044937EC4A9BFB44E3E70C5977C00C27405D3BA3894D4F11745018B79A27A19</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>A4E4BEAC5966F6D823E99FA84DB28C786504BC7B3E789146CA4738D119E330E6</t>
+  </si>
+  <si>
+    <t>4A5D2CE0587676828B736F37EDAB001F27E09D4771CD2E1B85F646951C803B09</t>
+  </si>
+  <si>
+    <t>D2B1679E01906DB373B67BDD1116BD55F2960EA6ED1D683A9A1161B8A54CECEE</t>
+  </si>
+  <si>
+    <t>43C49F6E28F97373B9622B5EB3C0696535222641D5F3D0DB58F6EE291BFCAAD3</t>
+  </si>
+  <si>
+    <t>B7314E3A890E81BDC7CD78041254DA999EE3F100E12782D801AFDC07C8175CB0</t>
+  </si>
+  <si>
+    <t>D99C20BA13220152D706F5F359517C1E63B105A380D0818132763A08D3A058F3</t>
+  </si>
+  <si>
+    <t>310F3B8D5F863466EAFD1C4BD7A99B617FDD22359670F2C515042BBB6E546858</t>
+  </si>
+  <si>
+    <t>395B7E4A89B54A2A8F1DF1F9304AE256B8AA1FCBFD3C79D0349FADA15BF404AB</t>
+  </si>
+  <si>
+    <t>22BC54B1BABF58D4984B88A0F6FB4F212FFB49172B0217C5F67569BA632D8479</t>
+  </si>
+  <si>
+    <t>38D3F5616545AFC929F11B5A4606D553580A40728AB6B06CDD22ACC597315E3B</t>
+  </si>
+  <si>
+    <t>221E45ACE730F7495096977E08570A0E46427C5C7147F81DB22B6A5E53A873BB</t>
+  </si>
+  <si>
+    <t>AD2860E484CBECF23743AA4D06B93FFCB2A7285476052D4D61CA65BA274C7A0B</t>
+  </si>
+  <si>
+    <t>A3C32C927CF5271202EE8976B6BE82F639B7FAC91D3AD01352419EBD9B0FC0AE</t>
+  </si>
+  <si>
+    <t>0520299565105AF8BD1B6E30146602B291849CFE0A1EDF5FCD44DEECD3EF00D7</t>
+  </si>
+  <si>
+    <t>2086F3EA32B474D8B35F31C4AE742EB78CB684C6DE492FF6ABBB6EDE4DC92A5C</t>
+  </si>
+  <si>
+    <t>95F0073F319232F8A73EBB0E57DB29A567342B691B0A3193A866DE48D92047A4</t>
+  </si>
+  <si>
+    <t>73A19967D0E9305AE5EFE5C5D17BEBCBA3F21372995CDDDFEC837837CC0B536A</t>
+  </si>
+  <si>
+    <t>C84FF4D4BB3EEFDF13334C80F4062C01B4228777C2C2F32275B144A317F8F111</t>
+  </si>
+  <si>
+    <t>114F3262386DDF53B012340C9C415EAA0C14CACEE6FF902BCF981729DADCB3BF</t>
+  </si>
+  <si>
+    <t>A891F5A7FA431B549BCDEAE36E36A806D63EC2ED112966A5B49AD4E250D98BE6</t>
+  </si>
+  <si>
+    <t>F43EBDC49DD605FD174F7E49EF863047A80494DF3261D7D0AB7824A4C3FA3278</t>
   </si>
 </sst>
 </file>
@@ -579,7 +702,7 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -597,54 +720,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -669,7 +792,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -687,10 +812,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +830,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -723,10 +850,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +868,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -759,10 +888,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +906,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -795,10 +926,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -807,6 +938,130 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -854,7 +1109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -902,204 +1157,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1107,42 +1170,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
     <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1157,37 +1184,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1205,23 +1246,229 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1394,35 +1641,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1465,16 +1712,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1516,16 +1763,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1568,16 +1815,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1621,16 +1868,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +1893,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1664,10 +1913,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1931,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1700,10 +1951,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Kutuzov17/evidence.xlsx
+++ b/Kutuzov17/evidence.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10755" firstSheet="10" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="89">
   <si>
     <t>TxHash</t>
   </si>
@@ -57,15 +57,6 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
@@ -295,6 +286,30 @@
   </si>
   <si>
     <t>F43EBDC49DD605FD174F7E49EF863047A80494DF3261D7D0AB7824A4C3FA3278</t>
+  </si>
+  <si>
+    <t>3D03144926C12BD4090795DF56478B061E12ED6E879EDDFBD1F68923EABD92DA</t>
+  </si>
+  <si>
+    <t>2640A37C868E2E6B379DDBD3C4C344ACF2F1095BA7DD0E3531D2EE0EEA6946FF</t>
+  </si>
+  <si>
+    <t>A280DFFC092D95F6CBD982FC34525B9847037AE7132A35B9D5B3A9C2CC527469</t>
+  </si>
+  <si>
+    <t>1B83D3C4FCDE011C06B09D42F9F1564AF2008CB2E179A24CC534E9B817F47655</t>
+  </si>
+  <si>
+    <t>B99B829EB0180C35A931BF24DE13AE49273B67E6E227CC0177E4D04319F0979C</t>
+  </si>
+  <si>
+    <t>E4B17A67FB4BDCCAFF568660E6B7FC77E0FEB632B8D53E80B71A5EC6E67A2B6A</t>
+  </si>
+  <si>
+    <t>0B2B4863B4772FB6E4FFBEDACB26C381C5B24B902A9C6F07BE6A8D186616D9A0</t>
+  </si>
+  <si>
+    <t>4AB86325DCBA068641F105DC207292DD6333CDE90999D6F39CE3D5DE6C30F53D</t>
   </si>
 </sst>
 </file>
@@ -702,8 +717,8 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,54 +735,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -804,18 +819,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -842,18 +857,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -880,18 +895,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -918,18 +933,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -964,34 +979,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1026,34 +1041,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1062,102 +1077,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1184,23 +1103,23 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
@@ -1208,18 +1127,89 @@
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1246,47 +1236,47 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1294,7 +1284,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,29 +1293,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1332,6 +1346,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1346,50 +1398,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1456,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1424,50 +1476,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1633,43 +1685,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1701,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1712,16 +1764,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1752,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1763,16 +1815,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1804,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1815,16 +1867,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1857,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1868,16 +1920,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1905,18 +1957,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1943,18 +1995,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
